--- a/zhi/Game Plan.xlsx
+++ b/zhi/Game Plan.xlsx
@@ -6,13 +6,29 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
+  </si>
+  <si>
+    <t>Numbers 表格工作表名称</t>
+  </si>
+  <si>
+    <t>数字表格名称</t>
+  </si>
+  <si>
+    <t>Excel 工作表名称</t>
+  </si>
+  <si>
+    <t>工作表 1</t>
+  </si>
   <si>
     <t>表格 1</t>
   </si>
@@ -69,6 +85,9 @@
   </si>
   <si>
     <t>代码重构</t>
+  </si>
+  <si>
+    <t>30% =&gt; 60%</t>
   </si>
   <si>
     <t>货币</t>
@@ -78,10 +97,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -93,6 +113,17 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="14"/>
       <color indexed="8"/>
@@ -100,11 +131,11 @@
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="8"/>
+      <color indexed="16"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,7 +150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -134,106 +177,106 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -243,41 +286,59 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -297,10 +358,14 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff578625"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1391,6 +1456,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'工作表 1'!R2C1" tooltip="" display="工作表 1"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1402,170 +1522,174 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29.8438" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5625" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.8438" style="6" customWidth="1"/>
+    <col min="2" max="2" width="41.6875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.5625" style="6" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" ht="28.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
+      <c r="A2" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="28.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
+      <c r="A3" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
         <v>0.6</v>
       </c>
     </row>
     <row r="4" ht="28.35" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="28.35" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="A5" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" ht="28.35" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" ht="28.35" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="A7" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" ht="28.35" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="A8" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="15">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9" ht="28.35" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="A9" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" ht="28.35" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="A10" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" ht="28.35" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="A11" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" ht="28.35" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" ht="28.35" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
+      <c r="A13" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" ht="28.35" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" ht="28.35" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" ht="28.35" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" ht="28.35" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10">
-        <v>0.3</v>
+      <c r="A17" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" t="s" s="16">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="28.35" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19" ht="25.35" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" ht="25.35" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" ht="25.35" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" ht="25.35" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" ht="25.35" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
